--- a/data/income_statement/3digits/total/253_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/253_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>253-Manufacture of steam generators, except central heating hot water boilers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>253-Manufacture of steam generators, except central heating hot water boilers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>211964.20235</v>
@@ -968,7 +874,7 @@
         <v>492576.99265</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>649198.61625</v>
+        <v>666135.45487</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>1243968.22524</v>
@@ -977,16 +883,21 @@
         <v>695563.45307</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>966203.8985</v>
+        <v>966800.9784799999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1061404.60191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1062837.64407</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1491122.843</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>155456.53599</v>
@@ -1007,7 +918,7 @@
         <v>386135.6507</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>486232.35476</v>
+        <v>501160.16022</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>475277.1536</v>
@@ -1016,25 +927,30 @@
         <v>527828.8248600001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>752591.4201199999</v>
+        <v>753188.5001000001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>714780.6305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>716208.3185699999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1182416.559</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>53489.89479</v>
+        <v>53489.89479000001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>34323.73025</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>80343.74681999999</v>
+        <v>80343.74682000001</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>113953.57795</v>
@@ -1046,7 +962,7 @@
         <v>102112.35818</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>157124.21861</v>
+        <v>159015.63293</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>760431.377</v>
@@ -1060,17 +976,22 @@
       <c r="M7" s="48" t="n">
         <v>337586.21713</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>298016.335</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>3017.77157</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4875.3342</v>
+        <v>4875.334199999999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>2625.64354</v>
@@ -1082,28 +1003,33 @@
         <v>2705.76962</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4328.98377</v>
+        <v>4328.983770000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5842.04288</v>
+        <v>5959.66172</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>8259.69464</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6999.955779999999</v>
+        <v>6999.95578</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8487.602779999999</v>
+        <v>8487.602780000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9037.754279999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9043.108370000002</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10689.949</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2474.67576</v>
@@ -1115,7 +1041,7 @@
         <v>1308.22172</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4173.2762</v>
+        <v>4173.276199999999</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>2408.76539</v>
@@ -1124,7 +1050,7 @@
         <v>4305.87738</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6681.830550000001</v>
+        <v>7246.28291</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>17379.96184</v>
@@ -1133,16 +1059,21 @@
         <v>11934.06406</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>18764.96018</v>
+        <v>18764.96017999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>26155.35838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>26155.35837999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>23080.059</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1690.00542</v>
@@ -1163,7 +1094,7 @@
         <v>3100.94798</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6298.74886</v>
+        <v>6779.515550000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>15670.84817</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>24477.88033</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>15465.155</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>463.48338</v>
@@ -1202,7 +1138,7 @@
         <v>664.19181</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11.40587</v>
+        <v>48.13442</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1434.46982</v>
@@ -1214,19 +1150,24 @@
         <v>319.40606</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>90.65351999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>90.65352</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>107.329</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>321.1869599999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>413.88871</v>
+        <v>413.8887099999999</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>26.98217</v>
@@ -1238,10 +1179,10 @@
         <v>38.23115</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>540.73759</v>
+        <v>540.7375900000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>371.67582</v>
+        <v>418.63294</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>274.64385</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>1586.82453</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>7507.575</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>209489.52659</v>
@@ -1271,16 +1217,16 @@
         <v>333184.69363</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>457068.32843</v>
+        <v>457068.3284299999</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>536583.43197</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>488271.11527</v>
+        <v>488271.1152700001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>642516.7857</v>
+        <v>658889.1719600001</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>1226588.2634</v>
@@ -1289,16 +1235,21 @@
         <v>683629.38901</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>947438.93832</v>
+        <v>948036.0183</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1035249.24353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1036682.28569</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1468042.784</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>167294.36913</v>
@@ -1319,7 +1270,7 @@
         <v>392486.8803500001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>517714.85635</v>
+        <v>528637.9650300001</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>1103049.66527</v>
@@ -1328,16 +1279,21 @@
         <v>556904.87026</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>799027.7404400001</v>
+        <v>799603.9359100001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>828205.20103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>829620.77923</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1134099.929</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>122576.55621</v>
@@ -1358,25 +1314,30 @@
         <v>311284.309</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>351327.73931</v>
+        <v>355516.75981</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>384188.88177</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>459870.3265800001</v>
+        <v>459870.32658</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>628974.13518</v>
+        <v>628974.1351800001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>688941.3367699999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>690355.42258</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>859771.809</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>10188.78857</v>
@@ -1397,7 +1358,7 @@
         <v>26467.20659</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>86249.72791</v>
+        <v>92084.24639999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>23206.63313</v>
@@ -1406,16 +1367,21 @@
         <v>57788.58635000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>49946.53845</v>
+        <v>49946.53844999999</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>91254.55016</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>96791.856</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>31839.62675</v>
@@ -1430,31 +1396,36 @@
         <v>56556.14926999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>84059.30983000001</v>
+        <v>84059.30983</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>51183.09348999999</v>
+        <v>51183.09349</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>79141.96899000001</v>
+        <v>80041.53868000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>692984.46826</v>
+        <v>692984.4682600001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>36976.12161</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>116716.30748</v>
+        <v>117292.50295</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>44294.90462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>44296.39701</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>173921.462</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2689.3976</v>
@@ -1475,7 +1446,7 @@
         <v>3552.27127</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>995.4201400000001</v>
+        <v>995.4201399999999</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>2669.68211</v>
@@ -1489,20 +1460,25 @@
       <c r="M18" s="48" t="n">
         <v>3714.40948</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>3614.802</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>42195.15745999999</v>
+        <v>42195.15746</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>37975.87452</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>52021.94473999999</v>
+        <v>52021.94474</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>71439.99153999999</v>
@@ -1514,7 +1490,7 @@
         <v>95784.23492</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>124801.92935</v>
+        <v>130251.20693</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>123538.59813</v>
@@ -1523,16 +1499,21 @@
         <v>126724.51875</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>148411.19788</v>
+        <v>148432.08239</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>207044.0425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>207061.50646</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>333942.855</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>21442.35467</v>
@@ -1553,25 +1534,30 @@
         <v>54995.86291</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>59657.00163000001</v>
+        <v>62235.82594</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>68963.58104999999</v>
+        <v>68963.58105000001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>71165.65109999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>70127.86492000001</v>
+        <v>70210.5876</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>98687.31131999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>98826.21064999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>113066.056</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>223.60319</v>
@@ -1592,7 +1578,7 @@
         <v>2206.18667</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>826.1587599999999</v>
+        <v>826.15876</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>581.58905</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>6047.4002</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4942.864</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>4383.93075</v>
@@ -1631,7 +1622,7 @@
         <v>9181.086650000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>12125.15952</v>
+        <v>13194.49953</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>11248.09321</v>
@@ -1643,13 +1634,18 @@
         <v>15509.52622</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22416.12997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22417.59333</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>34623.122</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>16834.82073</v>
@@ -1664,13 +1660,13 @@
         <v>30255.82796</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>39536.26223</v>
+        <v>39536.26223000001</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>43608.58959</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>46705.68335</v>
+        <v>48215.16765</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>57133.89879</v>
@@ -1679,16 +1675,21 @@
         <v>52990.50508</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>52819.84252</v>
+        <v>52902.5652</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>70223.78115000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>70361.21712</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>73500.07000000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>20752.80279</v>
@@ -1709,25 +1710,30 @@
         <v>40788.37201</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>65144.92772</v>
+        <v>68015.38099000001</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>54575.01708</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>55558.86765</v>
+        <v>55558.86764999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>78283.33296000001</v>
+        <v>78221.49479</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>108356.73118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>108235.29581</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>220876.799</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>6743.46709</v>
@@ -1748,7 +1754,7 @@
         <v>22579.74816</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>29228.53908</v>
+        <v>32158.45315</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>33181.43822</v>
@@ -1757,16 +1763,21 @@
         <v>38886.70565</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>127040.02601</v>
+        <v>127130.17828</v>
       </c>
       <c r="M25" s="47" t="n">
         <v>77236.51884</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="47" t="n">
+        <v>118594.784</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1270.27071</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1150.11</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1050.2973</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>929.23353</v>
+        <v>929.2335299999999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>1300.83934</v>
@@ -1862,28 +1883,33 @@
         <v>2751.2682</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4480.14193</v>
+        <v>4480.141930000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2004.00843</v>
+        <v>2759.69023</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3051.899019999999</v>
+        <v>3051.89902</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6021.73915</v>
+        <v>6021.739149999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10681.03034</v>
+        <v>10771.06394</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>14225.63653</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>20056.875</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>15.28797</v>
@@ -1904,7 +1930,7 @@
         <v>5.50754</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0</v>
+        <v>10.89299</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>11.59175</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>110.35275</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>120.90366</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>320.50217</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>54.49849</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>64.97985</v>
+        <v>64.97984999999998</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>91.04360000000001</v>
@@ -1985,7 +2021,7 @@
         <v>1688.49687</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>725.85406</v>
+        <v>725.8540599999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>415.62319</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1577.77325</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1842.029</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4644.97594</v>
@@ -2021,7 +2062,7 @@
         <v>11814.04735</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>23381.08214</v>
+        <v>25384.16597</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>25334.13989</v>
@@ -2030,16 +2071,21 @@
         <v>30252.22492</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>108259.35096</v>
+        <v>108259.46963</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>54744.70441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>54744.70441000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>87901.549</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>57.89403</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1.725</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.1</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1.12192</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>855.40373</v>
@@ -2132,13 +2188,13 @@
         <v>11115.64153</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4942.429169999999</v>
+        <v>4942.42917</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4645.932529999999</v>
+        <v>4645.93253</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1739.33811</v>
+        <v>1899.59356</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>2661.5341</v>
@@ -2152,23 +2208,28 @@
       <c r="M35" s="48" t="n">
         <v>4928.26307</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>7637.446</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5753.65312</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4659.670529999999</v>
+        <v>4659.67053</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>10567.25408</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8504.627879999998</v>
+        <v>8504.62788</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>13017.19702</v>
@@ -2177,7 +2238,7 @@
         <v>12821.67775</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>27380.99982</v>
+        <v>28156.40772</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>24676.33222</v>
@@ -2186,16 +2247,21 @@
         <v>28305.45766</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>114000.7473</v>
+        <v>114000.83657</v>
       </c>
       <c r="M36" s="47" t="n">
         <v>51140.90979</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>120747.443</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>466.63258</v>
@@ -2213,10 +2279,10 @@
         <v>444.67638</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>618.5024100000001</v>
+        <v>618.5024099999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>332.35375</v>
+        <v>380.42318</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>646.73959</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>3445.2711</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2142.13</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>203.2955</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>501.0561700000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>5691.404</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>368.16587</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>433.549</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>4509.082969999999</v>
@@ -2321,10 +2402,10 @@
         <v>3750.17895</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9581.31251</v>
+        <v>9581.312509999998</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6822.63896</v>
+        <v>6822.638960000001</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>10797.95063</v>
@@ -2333,7 +2414,7 @@
         <v>10495.68266</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24140.16145</v>
+        <v>24667.39993</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>23304.22472</v>
@@ -2342,16 +2423,21 @@
         <v>25477.05192</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>109859.34249</v>
+        <v>109859.35923</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>45430.82257</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>112312.228</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1.72469</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>22.141</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>12</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>562.64207</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>493.9101000000001</v>
+        <v>493.9101</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>517.2502000000001</v>
@@ -2447,10 +2543,10 @@
         <v>1250.75896</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>316.7529499999999</v>
+        <v>316.75295</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1662.01445</v>
+        <v>1862.11444</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>325.85242</v>
@@ -2459,16 +2555,21 @@
         <v>440.93501</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1253.08565</v>
+        <v>1253.15818</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>1393.86939</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>145.991</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>3849.26153</v>
@@ -2489,7 +2590,7 @@
         <v>11041.75444</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>15073.98767</v>
+        <v>15191.4303</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>16791.65524</v>
@@ -2498,16 +2599,21 @@
         <v>21628.1392</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>28604.56473</v>
+        <v>28626.1348</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>30287.17768</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>30299.88308</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>33433.239</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>3750.57667</v>
@@ -2519,7 +2625,7 @@
         <v>3072.92542</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5916.68387</v>
+        <v>5916.683869999999</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>8987.099320000001</v>
@@ -2528,25 +2634,30 @@
         <v>9923.01448</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>14381.11322</v>
+        <v>14498.55585</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>16044.33984</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>21435.70656999999</v>
+        <v>21435.70657</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>28357.51127</v>
+        <v>28379.08134</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>29865.29927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>29878.00467</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>33126.772</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>98.68486</v>
@@ -2558,7 +2669,7 @@
         <v>350.2714</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>291.6907</v>
+        <v>291.6906999999999</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>1170.78534</v>
@@ -2570,7 +2681,7 @@
         <v>692.8744499999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>747.3154000000001</v>
+        <v>747.3154</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>192.43263</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>421.87841</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>306.467</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>17893.35523</v>
@@ -2606,7 +2722,7 @@
         <v>39504.68798</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>51918.47931</v>
+        <v>56825.99612</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>46288.46784</v>
@@ -2615,16 +2731,21 @@
         <v>44511.97644</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>62718.04694</v>
+        <v>62724.7017</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>104165.16255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>104031.02178</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>185290.901</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2046.62008</v>
@@ -2645,7 +2766,7 @@
         <v>18366.46759</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5545.204360000001</v>
+        <v>5771.25659</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>8224.156999999999</v>
@@ -2657,13 +2778,18 @@
         <v>8699.9254</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7327.76134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7355.05623</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>18030.328</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>40.39285</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>16.25192</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>44.598</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2006.22723</v>
@@ -2723,25 +2854,30 @@
         <v>16087.36354</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5454.70404</v>
+        <v>5680.756270000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>8184.084339999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6090.78475</v>
+        <v>6090.784749999999</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>7242.9548</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7311.50942</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7338.80431</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>17985.73</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2074.17764</v>
@@ -2762,7 +2898,7 @@
         <v>24914.20493</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3352.21603</v>
+        <v>3414.79075</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>11657.12294</v>
@@ -2771,19 +2907,24 @@
         <v>3760.21151</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>16171.31953</v>
+        <v>16171.40063</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6526.02061</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6539.532040000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>12867.303</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>776.4316000000001</v>
+        <v>776.4316</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>49.22153</v>
@@ -2798,7 +2939,7 @@
         <v>63.96706</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7947.732970000001</v>
+        <v>7947.73297</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>129.63743</v>
@@ -2815,32 +2956,37 @@
       <c r="M52" s="48" t="n">
         <v>2783.15869</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2716.403</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>463.98412</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>889.52481</v>
+        <v>889.5248099999999</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>598.54125</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>796.15112</v>
+        <v>796.1511200000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>931.6383300000001</v>
+        <v>931.63833</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>5819.92684</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1424.7351</v>
+        <v>1437.3769</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>1073.21685</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>1451.49889</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3452.288</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>833.7619199999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>590.1789200000001</v>
+        <v>590.1789199999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>12803.16476</v>
@@ -2879,7 +3030,7 @@
         <v>11146.54512</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1797.8435</v>
+        <v>1847.77642</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>10583.90609</v>
@@ -2888,16 +3039,21 @@
         <v>2246.76315</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12159.65744</v>
+        <v>12159.73854</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2291.36303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2304.87446</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6698.612</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>17865.79767</v>
@@ -2906,7 +3062,7 @@
         <v>13911.44677</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>7587.048269999999</v>
+        <v>7587.04827</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>35491.0417</v>
@@ -2918,7 +3074,7 @@
         <v>32956.95064</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>54111.46764</v>
+        <v>59182.46195999999</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>42855.5019</v>
@@ -2927,16 +3083,21 @@
         <v>46848.77978</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>55246.65280999999</v>
+        <v>55253.22647</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>104966.90328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>104846.54597</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>190453.926</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2395.72336</v>
@@ -2969,13 +3130,18 @@
         <v>6401.438230000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>15449.33248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15451.38877</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>33376.818</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>15470.07431</v>
@@ -2996,22 +3162,25 @@
         <v>25166.36892</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>46051.80183</v>
+        <v>51122.79615</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>38118.82279999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>41275.16684999999</v>
+        <v>41275.16685</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>48845.21458</v>
+        <v>48851.78824</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>89517.5708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>89395.15719999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>157077.108</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>66</v>
@@ -3050,7 +3222,7 @@
         <v>81</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>91</v>
@@ -3059,13 +3231,16 @@
         <v>96</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>